--- a/pred_ohlcv/54_21/2020-01-19 SNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 SNT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-958594.8883817266</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-958594.8883817266</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-1130113.372281726</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1141838.2067</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1161838.2067</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-1162010.4321</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1273059.7917</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-167347.9775999996</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-167347.9775999996</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-246048.5404999997</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-246217.8161999997</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-158109.9935999996</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-190876.2649999996</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-190876.2649999996</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-190876.2649999996</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-192876.2649999996</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-192876.2649999996</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-192876.2649999996</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-241467.7833999996</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-244384.6770999996</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-211374.0924999996</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-380936.1117999996</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-488791.9053999996</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-488791.9053999996</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-488791.9053999996</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-488791.9053999996</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-488748.9053999996</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-496272.0639999996</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-496272.0639999996</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-496272.0639999996</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-496272.0639999996</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-496272.0639999996</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-496272.0639999996</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-496272.0639999996</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-495474.3948999996</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-495634.4622967982</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-588231.7849967983</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-578853.2847967983</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-388239.8538967982</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-535925.4965967982</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-539597.1294967982</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-755831.3628967981</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-751049.179596798</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-595392.2389967979</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-595392.2389967979</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-612256.006796798</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-605699.323596798</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-605699.323596798</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-605699.323596798</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-611984.966096798</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-19 SNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 SNT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-958594.8883817266</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-958594.8883817266</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-1130113.372281726</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1141838.2067</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1161838.2067</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-1162010.4321</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1273059.7917</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1273059.7917</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1273059.7917</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-1263277.5625</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-167347.9775999996</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-167347.9775999996</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-246048.5404999997</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-246048.5404999997</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-190876.2649999996</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-192876.2649999996</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-192876.2649999996</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-244384.6770999996</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-211374.0924999996</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-359755.4169999996</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-535925.4965967982</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-539597.1294967982</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-755831.3628967981</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-751049.179596798</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-595392.2389967979</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-605699.323596798</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-611984.966096798</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
